--- a/Analysis/TilingVsMarkovTiming.xlsx
+++ b/Analysis/TilingVsMarkovTiming.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School_Git\WFCProject\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A1B6D9-2E7A-4B51-9934-B5D2E1F8ADFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52763344-B01A-4225-958B-2B2B34939B22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -489,7 +489,7 @@
   <dimension ref="B2:R28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Analysis/TilingVsMarkovTiming.xlsx
+++ b/Analysis/TilingVsMarkovTiming.xlsx
@@ -8,12 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School_Git\WFCProject\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52763344-B01A-4225-958B-2B2B34939B22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCFA2135-0CE9-4C6B-85F3-8B050075C32B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Run1" sheetId="1" r:id="rId1"/>
+    <sheet name="Run2" sheetId="2" r:id="rId2"/>
+    <sheet name="Run3" sheetId="3" r:id="rId3"/>
+    <sheet name="Run4" sheetId="4" r:id="rId4"/>
+    <sheet name="Run5" sheetId="5" r:id="rId5"/>
+    <sheet name="Run6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="18">
   <si>
     <t>Tiling Model</t>
   </si>
@@ -488,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1250,4 +1255,3825 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32498788-6228-4B85-92B9-449E0A2DE854}">
+  <dimension ref="B2:R28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" customWidth="1"/>
+    <col min="16" max="16" width="13.85546875" customWidth="1"/>
+    <col min="17" max="17" width="15.5703125" customWidth="1"/>
+    <col min="18" max="18" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="I2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B5" s="7"/>
+      <c r="C5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="7"/>
+      <c r="O5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4.5100000000000001E-3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>8.4739999999999996E-2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>9.2186000000000004E-2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.123164</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
+        <v>9.8029999999999992E-3</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1.6632999999999998E-2</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1.9902E-2</v>
+      </c>
+      <c r="L6" s="3">
+        <v>6.2370000000000002E-2</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O6" s="2">
+        <v>4.1991000000000001E-2</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.61698500000000001</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>9.4511999999999999E-2</v>
+      </c>
+      <c r="R6" s="3">
+        <v>0.12905800000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
+        <v>4.2630000000000003E-3</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+      <c r="H7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1.0152E-2</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="6"/>
+      <c r="N7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O7" s="5">
+        <v>4.3629000000000001E-2</v>
+      </c>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="6"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8">
+        <v>4.228E-3</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="H8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="8">
+        <v>1.2498E-2</v>
+      </c>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="9"/>
+      <c r="N8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="O8" s="8">
+        <v>4.8363000000000003E-2</v>
+      </c>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="9"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3.9050000000000001E-3</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1.1828E-2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1.4727000000000001E-2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2.8435999999999999E-2</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="2">
+        <v>6.3600000000000002E-3</v>
+      </c>
+      <c r="J10" s="2">
+        <v>6.5529999999999998E-3</v>
+      </c>
+      <c r="K10" s="2">
+        <v>3.4039E-2</v>
+      </c>
+      <c r="L10" s="3">
+        <v>6.0503000000000001E-2</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="2">
+        <v>1.6903999999999999E-2</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1.2666E-2</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>1.3485E-2</v>
+      </c>
+      <c r="R10" s="3">
+        <v>2.8015000000000002E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="5">
+        <v>3.6229999999999999E-3</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
+      <c r="H11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="10">
+        <v>5.0020000000000004E-3</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="6"/>
+      <c r="N11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O11" s="10">
+        <v>1.4435999999999999E-2</v>
+      </c>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="6"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="8">
+        <v>4.8599999999999997E-3</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9"/>
+      <c r="H12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="8">
+        <v>6.4390000000000003E-3</v>
+      </c>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="9"/>
+      <c r="N12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="8">
+        <v>1.536E-2</v>
+      </c>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="9"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="2">
+        <v>3.1580000000000002E-3</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1.4175999999999999E-2</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1.5699999999999999E-2</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2.7605000000000001E-2</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="2">
+        <v>3.5980000000000001E-3</v>
+      </c>
+      <c r="J14" s="2">
+        <v>4.5529999999999998E-3</v>
+      </c>
+      <c r="K14" s="2">
+        <v>5.4539999999999996E-3</v>
+      </c>
+      <c r="L14" s="3">
+        <v>9.7230000000000007E-3</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="2">
+        <v>8.5489999999999993E-3</v>
+      </c>
+      <c r="P14" s="2">
+        <v>1.5532000000000001E-2</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>1.5350000000000001E-2</v>
+      </c>
+      <c r="R14" s="3">
+        <v>2.2034000000000002E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5">
+        <v>2.6129999999999999E-3</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="10">
+        <v>3.3769999999999998E-3</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="6"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="10">
+        <v>8.1960000000000002E-3</v>
+      </c>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="6"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B16" s="7"/>
+      <c r="C16" s="8">
+        <v>2.4880000000000002E-3</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8">
+        <v>2.9819999999999998E-3</v>
+      </c>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="9"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="8">
+        <v>9.0329999999999994E-3</v>
+      </c>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="9"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2.9840000000000001E-3</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1.3865000000000001E-2</v>
+      </c>
+      <c r="E18" s="2">
+        <v>9.6500000000000006E-3</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1.4933E-2</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="2">
+        <v>3.846E-3</v>
+      </c>
+      <c r="J18" s="2">
+        <v>4.0130000000000001E-3</v>
+      </c>
+      <c r="K18" s="2">
+        <v>3.581E-3</v>
+      </c>
+      <c r="L18" s="3">
+        <v>5.7070000000000003E-3</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="2">
+        <v>5.4190000000000002E-3</v>
+      </c>
+      <c r="P18" s="2">
+        <v>8.3429999999999997E-3</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>6.587E-3</v>
+      </c>
+      <c r="R18" s="3">
+        <v>1.1627999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="C19" s="5">
+        <v>3.0379999999999999E-3</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="6"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="5">
+        <v>3.542E-3</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="6"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="5">
+        <v>6.6400000000000001E-3</v>
+      </c>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="6"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B20" s="7"/>
+      <c r="C20" s="8">
+        <v>2.8770000000000002E-3</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="9"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8">
+        <v>3.7330000000000002E-3</v>
+      </c>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="9"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="8">
+        <v>6.5529999999999998E-3</v>
+      </c>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="9"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2.5545999999999999E-2</v>
+      </c>
+      <c r="D22" s="2">
+        <v>6.3007999999999995E-2</v>
+      </c>
+      <c r="E22" s="2">
+        <v>5.9352000000000002E-2</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.16559399999999999</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" s="2">
+        <v>6.1024000000000002E-2</v>
+      </c>
+      <c r="J22" s="2">
+        <v>6.0644999999999998E-2</v>
+      </c>
+      <c r="K22" s="2">
+        <v>9.8223000000000005E-2</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0.25948900000000003</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0.21715999999999999</v>
+      </c>
+      <c r="P22" s="2">
+        <v>5.5573999999999998E-2</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>5.5633000000000002E-2</v>
+      </c>
+      <c r="R22" s="3">
+        <v>7.1849999999999997E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B23" s="4"/>
+      <c r="C23" s="5">
+        <v>2.4416E-2</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="6"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="5">
+        <v>5.2019000000000003E-2</v>
+      </c>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="6"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="5">
+        <v>0.20045099999999999</v>
+      </c>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="6"/>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B24" s="7"/>
+      <c r="C24" s="8">
+        <v>2.7231999999999999E-2</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8">
+        <v>5.1428000000000001E-2</v>
+      </c>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="9"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="8">
+        <v>0.21365899999999999</v>
+      </c>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="9"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="2">
+        <v>2.8779999999999999E-3</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1.0789E-2</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1.2206E-2</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1.6267E-2</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" s="2">
+        <v>3.908E-3</v>
+      </c>
+      <c r="J26" s="2">
+        <v>5.9540000000000001E-3</v>
+      </c>
+      <c r="K26" s="2">
+        <v>5.5849999999999997E-3</v>
+      </c>
+      <c r="L26" s="3">
+        <v>1.0175999999999999E-2</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O26" s="2">
+        <v>7.842E-3</v>
+      </c>
+      <c r="P26" s="2">
+        <v>1.1962E-2</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>1.1985000000000001E-2</v>
+      </c>
+      <c r="R26" s="3">
+        <v>3.5060000000000001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="C27" s="5">
+        <v>2.575E-3</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="6"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="5">
+        <v>3.248E-3</v>
+      </c>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="6"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="5">
+        <v>1.3209E-2</v>
+      </c>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="6"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B28" s="7"/>
+      <c r="C28" s="8">
+        <v>2.5100000000000001E-3</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="9"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="8">
+        <v>3.0630000000000002E-3</v>
+      </c>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="9"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="8">
+        <v>7.718E-3</v>
+      </c>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD6474A-228E-4390-84C9-F76C3E93C86D}">
+  <dimension ref="B2:R28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="11" max="12" width="13.7109375" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" customWidth="1"/>
+    <col min="18" max="18" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="I2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B5" s="7"/>
+      <c r="C5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="7"/>
+      <c r="O5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4.6680000000000003E-3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>8.8175000000000003E-2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>8.9596999999999996E-2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.12468700000000001</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
+        <v>8.6540000000000002E-3</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1.7454999999999998E-2</v>
+      </c>
+      <c r="K6" s="2">
+        <v>2.0039000000000001E-2</v>
+      </c>
+      <c r="L6" s="3">
+        <v>5.4802999999999998E-2</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O6" s="2">
+        <v>4.0638000000000001E-2</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.17985799999999999</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.100369</v>
+      </c>
+      <c r="R6" s="3">
+        <v>0.14578099999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
+        <v>6.0200000000000002E-3</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+      <c r="H7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5">
+        <v>8.4419999999999999E-3</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="6"/>
+      <c r="N7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O7" s="5">
+        <v>4.7273000000000003E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8">
+        <v>6.3860000000000002E-3</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="H8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="8">
+        <v>1.0855E-2</v>
+      </c>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="9"/>
+      <c r="N8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="O8" s="8">
+        <v>5.3921999999999998E-2</v>
+      </c>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="9"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2">
+        <v>4.2960000000000003E-3</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1.4118E-2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1.4007E-2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2.852E-2</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="2">
+        <v>7.0359999999999997E-3</v>
+      </c>
+      <c r="J10" s="2">
+        <v>6.3249999999999999E-3</v>
+      </c>
+      <c r="K10" s="2">
+        <v>3.2936E-2</v>
+      </c>
+      <c r="L10" s="3">
+        <v>6.3250000000000001E-2</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="2">
+        <v>1.4057E-2</v>
+      </c>
+      <c r="P10" s="5">
+        <v>1.4992999999999999E-2</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>1.5370999999999999E-2</v>
+      </c>
+      <c r="R10" s="6">
+        <v>2.8722999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="5">
+        <v>4.1089999999999998E-3</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
+      <c r="H11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="10">
+        <v>5.1279999999999997E-3</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="6"/>
+      <c r="N11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O11" s="10">
+        <v>1.4385999999999999E-2</v>
+      </c>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="6"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="8">
+        <v>5.4390000000000003E-3</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9"/>
+      <c r="H12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="8">
+        <v>6.6899999999999998E-3</v>
+      </c>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="9"/>
+      <c r="N12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="8">
+        <v>1.3441E-2</v>
+      </c>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="9"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="2">
+        <v>3.32E-3</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1.4713E-2</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1.4630000000000001E-2</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2.0698999999999999E-2</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="2">
+        <v>4.8539999999999998E-3</v>
+      </c>
+      <c r="J14" s="2">
+        <v>6.1130000000000004E-3</v>
+      </c>
+      <c r="K14" s="2">
+        <v>5.6540000000000002E-3</v>
+      </c>
+      <c r="L14" s="3">
+        <v>1.1072E-2</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="2">
+        <v>9.3699999999999999E-3</v>
+      </c>
+      <c r="P14" s="2">
+        <v>1.4888999999999999E-2</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>2.2696999999999998E-2</v>
+      </c>
+      <c r="R14" s="3">
+        <v>2.0638E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5">
+        <v>2.6080000000000001E-3</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="10">
+        <v>3.9090000000000001E-3</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="6"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="10">
+        <v>9.3340000000000003E-3</v>
+      </c>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="6"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B16" s="7"/>
+      <c r="C16" s="8">
+        <v>2.6350000000000002E-3</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8">
+        <v>3.143E-3</v>
+      </c>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="9"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="8">
+        <v>9.6270000000000001E-3</v>
+      </c>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="9"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2.8700000000000002E-3</v>
+      </c>
+      <c r="D18" s="2">
+        <v>7.6319999999999999E-3</v>
+      </c>
+      <c r="E18" s="2">
+        <v>7.5420000000000001E-3</v>
+      </c>
+      <c r="F18" s="3">
+        <v>8.9709999999999998E-3</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="2">
+        <v>3.9179999999999996E-3</v>
+      </c>
+      <c r="J18" s="2">
+        <v>3.6319999999999998E-3</v>
+      </c>
+      <c r="K18" s="2">
+        <v>3.6510000000000002E-3</v>
+      </c>
+      <c r="L18" s="3">
+        <v>6.3559999999999997E-3</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="2">
+        <v>5.8979999999999996E-3</v>
+      </c>
+      <c r="P18" s="2">
+        <v>7.8759999999999993E-3</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>8.6379999999999998E-3</v>
+      </c>
+      <c r="R18" s="3">
+        <v>1.2045E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="C19" s="5">
+        <v>2.3670000000000002E-3</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="6"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="5">
+        <v>2.5500000000000002E-3</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="6"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="5">
+        <v>7.607E-3</v>
+      </c>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="6"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B20" s="7"/>
+      <c r="C20" s="8">
+        <v>2.6310000000000001E-3</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="9"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8">
+        <v>3.7680000000000001E-3</v>
+      </c>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="9"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="8">
+        <v>7.1640000000000002E-3</v>
+      </c>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="9"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2.3650999999999998E-2</v>
+      </c>
+      <c r="D22" s="2">
+        <v>5.6988999999999998E-2</v>
+      </c>
+      <c r="E22" s="2">
+        <v>5.8831000000000001E-2</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.17364199999999999</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" s="2">
+        <v>6.3024999999999998E-2</v>
+      </c>
+      <c r="J22" s="2">
+        <v>5.7879E-2</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0.104325</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0.28376299999999999</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0.22236800000000001</v>
+      </c>
+      <c r="P22" s="2">
+        <v>5.7609E-2</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>5.9698000000000001E-2</v>
+      </c>
+      <c r="R22" s="3">
+        <v>7.4779999999999999E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B23" s="4"/>
+      <c r="C23" s="5">
+        <v>2.7688000000000001E-2</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="6"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="5">
+        <v>5.4198000000000003E-2</v>
+      </c>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="6"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="5">
+        <v>0.24009</v>
+      </c>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="6"/>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B24" s="7"/>
+      <c r="C24" s="8">
+        <v>2.665E-2</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8">
+        <v>5.2217E-2</v>
+      </c>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="9"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="8">
+        <v>0.223187</v>
+      </c>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="9"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="2">
+        <v>3.209E-3</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1.3492000000000001E-2</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1.2262E-2</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1.9272000000000001E-2</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" s="2">
+        <v>3.4989999999999999E-3</v>
+      </c>
+      <c r="J26" s="2">
+        <v>4.8780000000000004E-3</v>
+      </c>
+      <c r="K26" s="2">
+        <v>5.025E-3</v>
+      </c>
+      <c r="L26" s="3">
+        <v>9.3130000000000001E-3</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O26" s="2">
+        <v>7.4900000000000001E-3</v>
+      </c>
+      <c r="P26" s="2">
+        <v>1.2765E-2</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>1.2113000000000001E-2</v>
+      </c>
+      <c r="R26" s="3">
+        <v>3.1766999999999997E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="C27" s="5">
+        <v>2.9949999999999998E-3</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="6"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="5">
+        <v>3.7780000000000001E-3</v>
+      </c>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="6"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="5">
+        <v>1.2087000000000001E-2</v>
+      </c>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="6"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B28" s="7"/>
+      <c r="C28" s="8">
+        <v>2.761E-3</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="9"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="8">
+        <v>3.4859999999999999E-3</v>
+      </c>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="9"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="8">
+        <v>8.0190000000000001E-3</v>
+      </c>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6080298-79BC-486D-B97D-531D368CEEFC}">
+  <dimension ref="B2:R28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" customWidth="1"/>
+    <col min="17" max="17" width="13" customWidth="1"/>
+    <col min="18" max="18" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="I2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B5" s="7"/>
+      <c r="C5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="7"/>
+      <c r="O5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>6.7499999999999999E-3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>9.2594999999999997E-2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>9.0074000000000001E-2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.127356</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1.3769E-2</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1.7874000000000001E-2</v>
+      </c>
+      <c r="K6" s="2">
+        <v>2.0001999999999999E-2</v>
+      </c>
+      <c r="L6" s="3">
+        <v>5.4011000000000003E-2</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O6" s="2">
+        <v>4.1239999999999999E-2</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.339667</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>9.7809999999999994E-2</v>
+      </c>
+      <c r="R6" s="3">
+        <v>0.12936800000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
+        <v>6.3689999999999997E-3</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+      <c r="H7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1.1063E-2</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="6"/>
+      <c r="N7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O7" s="5">
+        <v>4.9452999999999997E-2</v>
+      </c>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="6"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8">
+        <v>5.8929999999999998E-3</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="H8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="8">
+        <v>9.7730000000000004E-3</v>
+      </c>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="9"/>
+      <c r="N8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="O8" s="8">
+        <v>5.0964000000000002E-2</v>
+      </c>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="9"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2">
+        <v>4.7590000000000002E-3</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1.2777E-2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1.3478E-2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2.6343999999999999E-2</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="2">
+        <v>7.7429999999999999E-3</v>
+      </c>
+      <c r="J10" s="2">
+        <v>6.7270000000000003E-3</v>
+      </c>
+      <c r="K10" s="2">
+        <v>3.3633000000000003E-2</v>
+      </c>
+      <c r="L10" s="3">
+        <v>6.5104999999999996E-2</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="2">
+        <v>1.41E-2</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1.1979999999999999E-2</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>1.4298999999999999E-2</v>
+      </c>
+      <c r="R10" s="3">
+        <v>2.7268000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="5">
+        <v>5.3179999999999998E-3</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
+      <c r="H11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="10">
+        <v>5.3369999999999997E-3</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="6"/>
+      <c r="N11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O11" s="10">
+        <v>1.4522E-2</v>
+      </c>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="6"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="8">
+        <v>4.2079999999999999E-3</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9"/>
+      <c r="H12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="8">
+        <v>6.5510000000000004E-3</v>
+      </c>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="9"/>
+      <c r="N12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="8">
+        <v>1.4279E-2</v>
+      </c>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="9"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="2">
+        <v>4.751E-3</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1.9061000000000002E-2</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1.4788000000000001E-2</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1.9441E-2</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="2">
+        <v>3.3449999999999999E-3</v>
+      </c>
+      <c r="J14" s="2">
+        <v>6.032E-3</v>
+      </c>
+      <c r="K14" s="2">
+        <v>4.548E-3</v>
+      </c>
+      <c r="L14" s="3">
+        <v>9.953E-3</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="2">
+        <v>9.2130000000000007E-3</v>
+      </c>
+      <c r="P14" s="2">
+        <v>1.9734999999999999E-2</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>1.4897000000000001E-2</v>
+      </c>
+      <c r="R14" s="3">
+        <v>2.1325E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5">
+        <v>2.313E-3</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="10">
+        <v>3.1180000000000001E-3</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="6"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="10">
+        <v>7.4390000000000003E-3</v>
+      </c>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="6"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B16" s="7"/>
+      <c r="C16" s="8">
+        <v>2.189E-3</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8">
+        <v>4.607E-3</v>
+      </c>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="9"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="8">
+        <v>9.0449999999999992E-3</v>
+      </c>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="9"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2.774E-3</v>
+      </c>
+      <c r="D18" s="2">
+        <v>8.7939999999999997E-3</v>
+      </c>
+      <c r="E18" s="2">
+        <v>8.2129999999999998E-3</v>
+      </c>
+      <c r="F18" s="3">
+        <v>9.1549999999999999E-3</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="2">
+        <v>3.6129999999999999E-3</v>
+      </c>
+      <c r="J18" s="2">
+        <v>3.4619999999999998E-3</v>
+      </c>
+      <c r="K18" s="2">
+        <v>3.6960000000000001E-3</v>
+      </c>
+      <c r="L18" s="3">
+        <v>7.6740000000000003E-3</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="2">
+        <v>5.2430000000000003E-3</v>
+      </c>
+      <c r="P18" s="2">
+        <v>7.4269999999999996E-3</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>7.613E-3</v>
+      </c>
+      <c r="R18" s="3">
+        <v>1.1938000000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="C19" s="5">
+        <v>2.3280000000000002E-3</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="6"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="5">
+        <v>2.7920000000000002E-3</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="6"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="5">
+        <v>7.5989999999999999E-3</v>
+      </c>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="6"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B20" s="7"/>
+      <c r="C20" s="8">
+        <v>2.4239999999999999E-3</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="9"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8">
+        <v>2.941E-3</v>
+      </c>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="9"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="8">
+        <v>6.0130000000000001E-3</v>
+      </c>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="9"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2.9137E-2</v>
+      </c>
+      <c r="D22" s="2">
+        <v>5.8859000000000002E-2</v>
+      </c>
+      <c r="E22" s="2">
+        <v>5.5973000000000002E-2</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.64546899999999996</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" s="2">
+        <v>5.7077000000000003E-2</v>
+      </c>
+      <c r="J22" s="2">
+        <v>5.8897999999999999E-2</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0.10250099999999999</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0.27089600000000003</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0.21696799999999999</v>
+      </c>
+      <c r="P22" s="2">
+        <v>5.4919999999999997E-2</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>5.5043000000000002E-2</v>
+      </c>
+      <c r="R22" s="3">
+        <v>6.8528000000000006E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B23" s="4"/>
+      <c r="C23" s="5">
+        <v>2.0712000000000001E-2</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="6"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="5">
+        <v>5.1429999999999997E-2</v>
+      </c>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="6"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="5">
+        <v>0.21282799999999999</v>
+      </c>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="6"/>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B24" s="7"/>
+      <c r="C24" s="8">
+        <v>2.4344999999999999E-2</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8">
+        <v>5.4074999999999998E-2</v>
+      </c>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="9"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="8">
+        <v>0.22845599999999999</v>
+      </c>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="9"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="2">
+        <v>3.3600000000000001E-3</v>
+      </c>
+      <c r="D26" s="2">
+        <v>3.8052000000000002E-2</v>
+      </c>
+      <c r="E26" s="2">
+        <v>2.1527999999999999E-2</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1.8329999999999999E-2</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" s="2">
+        <v>3.9309999999999996E-3</v>
+      </c>
+      <c r="J26" s="2">
+        <v>4.614E-3</v>
+      </c>
+      <c r="K26" s="2">
+        <v>4.6509999999999998E-3</v>
+      </c>
+      <c r="L26" s="3">
+        <v>9.0010000000000003E-3</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O26" s="2">
+        <v>7.8279999999999999E-3</v>
+      </c>
+      <c r="P26" s="2">
+        <v>1.0506E-2</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>1.1265000000000001E-2</v>
+      </c>
+      <c r="R26" s="3">
+        <v>2.8982000000000001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="C27" s="5">
+        <v>2.6059999999999998E-3</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="6"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="5">
+        <v>3.2950000000000002E-3</v>
+      </c>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="6"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="5">
+        <v>1.2527999999999999E-2</v>
+      </c>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="6"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B28" s="7"/>
+      <c r="C28" s="8">
+        <v>2.7009999999999998E-3</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="9"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="8">
+        <v>3.2190000000000001E-3</v>
+      </c>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="9"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="8">
+        <v>7.5529999999999998E-3</v>
+      </c>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E20AA5D2-587D-4D4F-A280-3604588F91A7}">
+  <dimension ref="B2:R28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O36" sqref="O36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="6" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" customWidth="1"/>
+    <col min="18" max="18" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="I2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B5" s="7"/>
+      <c r="C5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="7"/>
+      <c r="O5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4.6309999999999997E-3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>8.8116E-2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>8.8901999999999995E-2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.133685</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
+        <v>9.9939999999999994E-3</v>
+      </c>
+      <c r="J6" s="2">
+        <v>2.0674000000000001E-2</v>
+      </c>
+      <c r="K6" s="2">
+        <v>2.2296E-2</v>
+      </c>
+      <c r="L6" s="3">
+        <v>5.8194000000000003E-2</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O6" s="2">
+        <v>4.1210999999999998E-2</v>
+      </c>
+      <c r="P6" s="2">
+        <v>9.4037999999999997E-2</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>9.5898999999999998E-2</v>
+      </c>
+      <c r="R6" s="3">
+        <v>0.13408700000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
+        <v>4.1770000000000002E-3</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+      <c r="H7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1.022E-2</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="6"/>
+      <c r="N7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O7" s="5">
+        <v>4.6365999999999997E-2</v>
+      </c>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="6"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8">
+        <v>4.2989999999999999E-3</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="H8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="8">
+        <v>8.8419999999999992E-3</v>
+      </c>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="9"/>
+      <c r="N8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="O8" s="8">
+        <v>5.2981E-2</v>
+      </c>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="9"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1.2067E-2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1.3441E-2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2.6169000000000001E-2</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="2">
+        <v>6.875E-3</v>
+      </c>
+      <c r="J10" s="2">
+        <v>6.3949999999999996E-3</v>
+      </c>
+      <c r="K10" s="2">
+        <v>3.4479000000000003E-2</v>
+      </c>
+      <c r="L10" s="3">
+        <v>6.4615000000000006E-2</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="2">
+        <v>1.3860000000000001E-2</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1.2172000000000001E-2</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>1.3712E-2</v>
+      </c>
+      <c r="R10" s="3">
+        <v>2.6977000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="5">
+        <v>3.3249999999999998E-3</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
+      <c r="H11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="10">
+        <v>4.9829999999999996E-3</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="6"/>
+      <c r="N11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O11" s="10">
+        <v>1.5402000000000001E-2</v>
+      </c>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="6"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="8">
+        <v>3.4359999999999998E-3</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9"/>
+      <c r="H12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="8">
+        <v>5.9430000000000004E-3</v>
+      </c>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="9"/>
+      <c r="N12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="8">
+        <v>1.4222E-2</v>
+      </c>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="9"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2.64E-3</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1.4983E-2</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1.4999E-2</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1.9354E-2</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="2">
+        <v>3.3310000000000002E-3</v>
+      </c>
+      <c r="J14" s="2">
+        <v>5.7549999999999997E-3</v>
+      </c>
+      <c r="K14" s="2">
+        <v>5.398E-3</v>
+      </c>
+      <c r="L14" s="3">
+        <v>1.0426E-2</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="2">
+        <v>9.1430000000000001E-3</v>
+      </c>
+      <c r="P14" s="2">
+        <v>1.4378999999999999E-2</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>2.2511E-2</v>
+      </c>
+      <c r="R14" s="3">
+        <v>2.6918000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5">
+        <v>2.5349999999999999E-3</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="10">
+        <v>3.1540000000000001E-3</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="6"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="10">
+        <v>7.4879999999999999E-3</v>
+      </c>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="6"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B16" s="7"/>
+      <c r="C16" s="8">
+        <v>2.725E-3</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8">
+        <v>3.0539999999999999E-3</v>
+      </c>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="9"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="8">
+        <v>8.7670000000000005E-3</v>
+      </c>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="9"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2">
+        <v>3.1900000000000001E-3</v>
+      </c>
+      <c r="D18" s="2">
+        <v>9.4830000000000001E-3</v>
+      </c>
+      <c r="E18" s="2">
+        <v>6.7910000000000002E-3</v>
+      </c>
+      <c r="F18" s="3">
+        <v>9.0650000000000001E-3</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="2">
+        <v>3.1870000000000002E-3</v>
+      </c>
+      <c r="J18" s="2">
+        <v>4.0249999999999999E-3</v>
+      </c>
+      <c r="K18" s="2">
+        <v>4.7479999999999996E-3</v>
+      </c>
+      <c r="L18" s="3">
+        <v>5.9119999999999997E-3</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="2">
+        <v>5.4739999999999997E-3</v>
+      </c>
+      <c r="P18" s="2">
+        <v>9.9500000000000005E-3</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>9.8329999999999997E-3</v>
+      </c>
+      <c r="R18" s="3">
+        <v>1.3544E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="C19" s="5">
+        <v>2.5990000000000002E-3</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="6"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="5">
+        <v>5.4970000000000001E-3</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="6"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="5">
+        <v>7.5300000000000002E-3</v>
+      </c>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="6"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B20" s="7"/>
+      <c r="C20" s="8">
+        <v>2.5660000000000001E-3</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="9"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8">
+        <v>3.7090000000000001E-3</v>
+      </c>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="9"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="8">
+        <v>6.2579999999999997E-3</v>
+      </c>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="9"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2.4056999999999999E-2</v>
+      </c>
+      <c r="D22" s="2">
+        <v>6.3659999999999994E-2</v>
+      </c>
+      <c r="E22" s="2">
+        <v>5.4059000000000003E-2</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.16189300000000001</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" s="2">
+        <v>6.0694999999999999E-2</v>
+      </c>
+      <c r="J22" s="2">
+        <v>6.1582999999999999E-2</v>
+      </c>
+      <c r="K22" s="2">
+        <v>9.4961000000000004E-2</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0.27177099999999998</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0.217976</v>
+      </c>
+      <c r="P22" s="2">
+        <v>5.3698999999999997E-2</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>5.4300000000000001E-2</v>
+      </c>
+      <c r="R22" s="3">
+        <v>6.9801000000000002E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B23" s="4"/>
+      <c r="C23" s="5">
+        <v>2.1482000000000001E-2</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="6"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="5">
+        <v>5.1575999999999997E-2</v>
+      </c>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="6"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="5">
+        <v>0.201206</v>
+      </c>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="6"/>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B24" s="7"/>
+      <c r="C24" s="8">
+        <v>2.7649E-2</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8">
+        <v>5.1255000000000002E-2</v>
+      </c>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="9"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="8">
+        <v>0.213528</v>
+      </c>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="9"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="2">
+        <v>3.323E-3</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1.1624000000000001E-2</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1.3158E-2</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1.7840999999999999E-2</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" s="2">
+        <v>4.5469999999999998E-3</v>
+      </c>
+      <c r="J26" s="2">
+        <v>6.0800000000000003E-3</v>
+      </c>
+      <c r="K26" s="2">
+        <v>5.3699999999999998E-3</v>
+      </c>
+      <c r="L26" s="3">
+        <v>8.6459999999999992E-3</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O26" s="2">
+        <v>7.8040000000000002E-3</v>
+      </c>
+      <c r="P26" s="2">
+        <v>1.2898E-2</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>1.3226E-2</v>
+      </c>
+      <c r="R26" s="3">
+        <v>3.3176999999999998E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="C27" s="5">
+        <v>3.166E-3</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="6"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="5">
+        <v>3.2200000000000002E-3</v>
+      </c>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="6"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="5">
+        <v>1.1769E-2</v>
+      </c>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="6"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B28" s="7"/>
+      <c r="C28" s="8">
+        <v>3.3769999999999998E-3</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="9"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="8">
+        <v>3.0360000000000001E-3</v>
+      </c>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="9"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="8">
+        <v>8.0230000000000006E-3</v>
+      </c>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A14C88AA-604E-4B79-8FF7-74E6B20DC204}">
+  <dimension ref="B2:R28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" customWidth="1"/>
+    <col min="15" max="16" width="12.5703125" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="I2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B5" s="7"/>
+      <c r="C5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="7"/>
+      <c r="O5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4.62E-3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>9.1421000000000002E-2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>8.8902999999999996E-2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.12450700000000001</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
+        <v>9.7310000000000001E-3</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1.8141000000000001E-2</v>
+      </c>
+      <c r="K6" s="2">
+        <v>2.1291999999999998E-2</v>
+      </c>
+      <c r="L6" s="3">
+        <v>5.3409999999999999E-2</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O6" s="2">
+        <v>4.0291E-2</v>
+      </c>
+      <c r="P6" s="2">
+        <v>9.0713000000000002E-2</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>9.3261999999999998E-2</v>
+      </c>
+      <c r="R6" s="3">
+        <v>0.14565800000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
+        <v>4.1460000000000004E-3</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+      <c r="H7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5">
+        <v>8.6390000000000008E-3</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="6"/>
+      <c r="N7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O7" s="5">
+        <v>4.3053000000000001E-2</v>
+      </c>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="6"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8">
+        <v>4.7149999999999996E-3</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="H8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="8">
+        <v>1.0658000000000001E-2</v>
+      </c>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="9"/>
+      <c r="N8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="O8" s="8">
+        <v>5.0424999999999998E-2</v>
+      </c>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="9"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3.5720000000000001E-3</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1.3648E-2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1.363E-2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2.7082999999999999E-2</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="2">
+        <v>4.8679999999999999E-3</v>
+      </c>
+      <c r="J10" s="2">
+        <v>6.3819999999999997E-3</v>
+      </c>
+      <c r="K10" s="2">
+        <v>3.1848000000000001E-2</v>
+      </c>
+      <c r="L10" s="3">
+        <v>6.1353999999999999E-2</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="2">
+        <v>1.6752E-2</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1.321E-2</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>1.3239000000000001E-2</v>
+      </c>
+      <c r="R10" s="3">
+        <v>2.8704E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="5">
+        <v>3.431E-3</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
+      <c r="H11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="10">
+        <v>6.2740000000000001E-3</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="6"/>
+      <c r="N11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O11" s="10">
+        <v>1.5181E-2</v>
+      </c>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="6"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="8">
+        <v>3.4020000000000001E-3</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9"/>
+      <c r="H12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="8">
+        <v>4.7419999999999997E-3</v>
+      </c>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="9"/>
+      <c r="N12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="8">
+        <v>1.3782000000000001E-2</v>
+      </c>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="9"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2.4689999999999998E-3</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2.5488E-2</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1.521E-2</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2.0840999999999998E-2</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="2">
+        <v>3.156E-3</v>
+      </c>
+      <c r="J14" s="2">
+        <v>5.0029999999999996E-3</v>
+      </c>
+      <c r="K14" s="2">
+        <v>5.7120000000000001E-3</v>
+      </c>
+      <c r="L14" s="3">
+        <v>9.4979999999999995E-3</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="2">
+        <v>8.9879999999999995E-3</v>
+      </c>
+      <c r="P14" s="2">
+        <v>1.3833E-2</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>1.4722000000000001E-2</v>
+      </c>
+      <c r="R14" s="3">
+        <v>2.2088E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5">
+        <v>2.2009999999999998E-3</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="10">
+        <v>3.5379999999999999E-3</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="6"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="10">
+        <v>8.3700000000000007E-3</v>
+      </c>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="6"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B16" s="7"/>
+      <c r="C16" s="8">
+        <v>2.2339999999999999E-3</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8">
+        <v>3.509E-3</v>
+      </c>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="9"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="8">
+        <v>8.5299999999999994E-3</v>
+      </c>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="9"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2.5460000000000001E-3</v>
+      </c>
+      <c r="D18" s="2">
+        <v>7.2610000000000001E-3</v>
+      </c>
+      <c r="E18" s="2">
+        <v>8.3090000000000004E-3</v>
+      </c>
+      <c r="F18" s="3">
+        <v>9.835E-3</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="2">
+        <v>2.9150000000000001E-3</v>
+      </c>
+      <c r="J18" s="2">
+        <v>4.1289999999999999E-3</v>
+      </c>
+      <c r="K18" s="2">
+        <v>3.5330000000000001E-3</v>
+      </c>
+      <c r="L18" s="3">
+        <v>5.8310000000000002E-3</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="2">
+        <v>5.4939999999999998E-3</v>
+      </c>
+      <c r="P18" s="2">
+        <v>6.9080000000000001E-3</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>7.1840000000000003E-3</v>
+      </c>
+      <c r="R18" s="3">
+        <v>1.1779E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="C19" s="5">
+        <v>2.5530000000000001E-3</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="6"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="5">
+        <v>2.5709999999999999E-3</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="6"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="5">
+        <v>6.8370000000000002E-3</v>
+      </c>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="6"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B20" s="7"/>
+      <c r="C20" s="8">
+        <v>2.3419999999999999E-3</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="9"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8">
+        <v>2.751E-3</v>
+      </c>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="9"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="8">
+        <v>6.4019999999999997E-3</v>
+      </c>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="9"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2.2206E-2</v>
+      </c>
+      <c r="D22" s="2">
+        <v>5.5985E-2</v>
+      </c>
+      <c r="E22" s="2">
+        <v>5.7181000000000003E-2</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.160658</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" s="2">
+        <v>7.0098999999999995E-2</v>
+      </c>
+      <c r="J22" s="2">
+        <v>6.3761999999999999E-2</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0.104475</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0.27679900000000002</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0.22547700000000001</v>
+      </c>
+      <c r="P22" s="2">
+        <v>5.4038999999999997E-2</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>5.5913999999999998E-2</v>
+      </c>
+      <c r="R22" s="3">
+        <v>8.2146999999999998E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B23" s="4"/>
+      <c r="C23" s="5">
+        <v>2.1718000000000001E-2</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="6"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="5">
+        <v>6.6310999999999995E-2</v>
+      </c>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="6"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="5">
+        <v>0.20766699999999999</v>
+      </c>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="6"/>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B24" s="7"/>
+      <c r="C24" s="8">
+        <v>3.1002999999999999E-2</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8">
+        <v>5.3652999999999999E-2</v>
+      </c>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="9"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="8">
+        <v>0.21281900000000001</v>
+      </c>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="9"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="2">
+        <v>3.5760000000000002E-3</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1.2343E-2</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1.2120000000000001E-2</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1.7224E-2</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" s="2">
+        <v>3.9090000000000001E-3</v>
+      </c>
+      <c r="J26" s="2">
+        <v>4.8120000000000003E-3</v>
+      </c>
+      <c r="K26" s="2">
+        <v>5.7629999999999999E-3</v>
+      </c>
+      <c r="L26" s="3">
+        <v>9.2619999999999994E-3</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O26" s="2">
+        <v>7.868E-3</v>
+      </c>
+      <c r="P26" s="2">
+        <v>1.3254999999999999E-2</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>1.2292000000000001E-2</v>
+      </c>
+      <c r="R26" s="3">
+        <v>3.2113000000000003E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="C27" s="5">
+        <v>2.7820000000000002E-3</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="6"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="5">
+        <v>3.4480000000000001E-3</v>
+      </c>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="6"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="5">
+        <v>1.052E-2</v>
+      </c>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="6"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B28" s="7"/>
+      <c r="C28" s="8">
+        <v>2.8470000000000001E-3</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="9"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="8">
+        <v>3.2759999999999998E-3</v>
+      </c>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="9"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="8">
+        <v>6.8570000000000002E-3</v>
+      </c>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>